--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Cdon</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +525,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.13148730721374</v>
+        <v>2.147752666666667</v>
       </c>
       <c r="H2">
-        <v>2.13148730721374</v>
+        <v>6.443258</v>
       </c>
       <c r="I2">
-        <v>0.8757556461186389</v>
+        <v>0.8708065646157738</v>
       </c>
       <c r="J2">
-        <v>0.8757556461186389</v>
+        <v>0.8708065646157739</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>34.2584388135885</v>
+        <v>0.9894223333333333</v>
       </c>
       <c r="N2">
-        <v>34.2584388135885</v>
+        <v>2.968267</v>
       </c>
       <c r="O2">
-        <v>0.7238753118225835</v>
+        <v>0.02008622060203138</v>
       </c>
       <c r="P2">
-        <v>0.7238753118225835</v>
+        <v>0.02008622060203139</v>
       </c>
       <c r="Q2">
-        <v>73.02142749612243</v>
+        <v>2.125034454876222</v>
       </c>
       <c r="R2">
-        <v>73.02142749612243</v>
+        <v>19.125310093886</v>
       </c>
       <c r="S2">
-        <v>0.6339378914145177</v>
+        <v>0.01749121275856953</v>
       </c>
       <c r="T2">
-        <v>0.6339378914145177</v>
+        <v>0.01749121275856954</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +587,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.13148730721374</v>
+        <v>2.147752666666667</v>
       </c>
       <c r="H3">
-        <v>2.13148730721374</v>
+        <v>6.443258</v>
       </c>
       <c r="I3">
-        <v>0.8757556461186389</v>
+        <v>0.8708065646157738</v>
       </c>
       <c r="J3">
-        <v>0.8757556461186389</v>
+        <v>0.8708065646157739</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.0679974580563</v>
+        <v>34.79912266666667</v>
       </c>
       <c r="N3">
-        <v>13.0679974580563</v>
+        <v>104.397368</v>
       </c>
       <c r="O3">
-        <v>0.2761246881774166</v>
+        <v>0.7064555054917406</v>
       </c>
       <c r="P3">
-        <v>0.2761246881774166</v>
+        <v>0.7064555054917406</v>
       </c>
       <c r="Q3">
-        <v>27.85427071254842</v>
+        <v>74.73990850499379</v>
       </c>
       <c r="R3">
-        <v>27.85427071254842</v>
+        <v>672.659176544944</v>
       </c>
       <c r="S3">
-        <v>0.2418177547041212</v>
+        <v>0.6151860917911626</v>
       </c>
       <c r="T3">
-        <v>0.2418177547041212</v>
+        <v>0.6151860917911627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.302396295661698</v>
+        <v>2.147752666666667</v>
       </c>
       <c r="H4">
-        <v>0.302396295661698</v>
+        <v>6.443258</v>
       </c>
       <c r="I4">
-        <v>0.1242443538813611</v>
+        <v>0.8708065646157738</v>
       </c>
       <c r="J4">
-        <v>0.1242443538813611</v>
+        <v>0.8708065646157739</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.2584388135885</v>
+        <v>13.47021566666667</v>
       </c>
       <c r="N4">
-        <v>34.2584388135885</v>
+        <v>40.410647</v>
       </c>
       <c r="O4">
-        <v>0.7238753118225835</v>
+        <v>0.2734582739062281</v>
       </c>
       <c r="P4">
-        <v>0.7238753118225835</v>
+        <v>0.2734582739062281</v>
       </c>
       <c r="Q4">
-        <v>10.3596249923821</v>
+        <v>28.93069161865845</v>
       </c>
       <c r="R4">
-        <v>10.3596249923821</v>
+        <v>260.376224567926</v>
       </c>
       <c r="S4">
-        <v>0.08993742040806565</v>
+        <v>0.2381292600660418</v>
       </c>
       <c r="T4">
-        <v>0.08993742040806565</v>
+        <v>0.2381292600660418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,55 +711,179 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.318642</v>
+      </c>
+      <c r="H5">
+        <v>0.9559260000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.1291934353842261</v>
+      </c>
+      <c r="J5">
+        <v>0.1291934353842261</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.9894223333333333</v>
+      </c>
+      <c r="N5">
+        <v>2.968267</v>
+      </c>
+      <c r="O5">
+        <v>0.02008622060203138</v>
+      </c>
+      <c r="P5">
+        <v>0.02008622060203139</v>
+      </c>
+      <c r="Q5">
+        <v>0.315271511138</v>
+      </c>
+      <c r="R5">
+        <v>2.837443600242</v>
+      </c>
+      <c r="S5">
+        <v>0.002595007843461854</v>
+      </c>
+      <c r="T5">
+        <v>0.002595007843461854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.302396295661698</v>
-      </c>
-      <c r="H5">
-        <v>0.302396295661698</v>
-      </c>
-      <c r="I5">
-        <v>0.1242443538813611</v>
-      </c>
-      <c r="J5">
-        <v>0.1242443538813611</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>13.0679974580563</v>
-      </c>
-      <c r="N5">
-        <v>13.0679974580563</v>
-      </c>
-      <c r="O5">
-        <v>0.2761246881774166</v>
-      </c>
-      <c r="P5">
-        <v>0.2761246881774166</v>
-      </c>
-      <c r="Q5">
-        <v>3.951714023032711</v>
-      </c>
-      <c r="R5">
-        <v>3.951714023032711</v>
-      </c>
-      <c r="S5">
-        <v>0.03430693347329543</v>
-      </c>
-      <c r="T5">
-        <v>0.03430693347329543</v>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.318642</v>
+      </c>
+      <c r="H6">
+        <v>0.9559260000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.1291934353842261</v>
+      </c>
+      <c r="J6">
+        <v>0.1291934353842261</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>34.79912266666667</v>
+      </c>
+      <c r="N6">
+        <v>104.397368</v>
+      </c>
+      <c r="O6">
+        <v>0.7064555054917406</v>
+      </c>
+      <c r="P6">
+        <v>0.7064555054917406</v>
+      </c>
+      <c r="Q6">
+        <v>11.088462044752</v>
+      </c>
+      <c r="R6">
+        <v>99.796158402768</v>
+      </c>
+      <c r="S6">
+        <v>0.09126941370057801</v>
+      </c>
+      <c r="T6">
+        <v>0.09126941370057801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.318642</v>
+      </c>
+      <c r="H7">
+        <v>0.9559260000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.1291934353842261</v>
+      </c>
+      <c r="J7">
+        <v>0.1291934353842261</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>13.47021566666667</v>
+      </c>
+      <c r="N7">
+        <v>40.410647</v>
+      </c>
+      <c r="O7">
+        <v>0.2734582739062281</v>
+      </c>
+      <c r="P7">
+        <v>0.2734582739062281</v>
+      </c>
+      <c r="Q7">
+        <v>4.292176460458</v>
+      </c>
+      <c r="R7">
+        <v>38.629588144122</v>
+      </c>
+      <c r="S7">
+        <v>0.03532901384018629</v>
+      </c>
+      <c r="T7">
+        <v>0.03532901384018629</v>
       </c>
     </row>
   </sheetData>
